--- a/Process Workflows/OMS_Allocation_process/OMS_AllocationMasterFile.xlsx
+++ b/Process Workflows/OMS_Allocation_process/OMS_AllocationMasterFile.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Updated GT 11 process\GT_Order_11 process_InputTracker\GT_Order_Process\Process Workflows\OMS_Allocation_process\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admrpad\Desktop\GT Order\GT_Order_11 process_InputTracker\GT_Order_Process\Process Workflows\OMS_Allocation_process\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,9 +41,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Step@123</t>
-  </si>
-  <si>
     <t>Url</t>
   </si>
   <si>
@@ -171,6 +168,9 @@
   </si>
   <si>
     <t>StorageLocationMA01</t>
+  </si>
+  <si>
+    <t>Step@1234</t>
   </si>
 </sst>
 </file>
@@ -515,7 +515,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,44 +545,44 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -590,7 +590,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>30</v>
@@ -614,7 +614,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -622,7 +622,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13">
         <v>200</v>
@@ -630,106 +630,106 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
         <v>25</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
         <v>30</v>
-      </c>
-      <c r="B19" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
